--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_7_7.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_7_7.xlsx
@@ -478,342 +478,342 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_23</t>
+          <t>model_7_7_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2838759280369365</v>
+        <v>0.8918959208772095</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.945911612956374</v>
+        <v>0.9436347706764576</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.436484319072978</v>
+        <v>0.7026594591551945</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.768940720836556</v>
+        <v>0.8875413156773473</v>
       </c>
       <c r="F2" t="n">
-        <v>1.420872449874878</v>
+        <v>0.1196393594145775</v>
       </c>
       <c r="G2" t="n">
-        <v>4.475043296813965</v>
+        <v>0.07973439246416092</v>
       </c>
       <c r="H2" t="n">
-        <v>4.592665195465088</v>
+        <v>0.176259309053421</v>
       </c>
       <c r="I2" t="n">
-        <v>4.530394554138184</v>
+        <v>0.1251578778028488</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_24</t>
+          <t>model_7_7_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2561176106851206</v>
+        <v>0.8945421087174573</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.828483624664625</v>
+        <v>0.9420750532697615</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.42086343045395</v>
+        <v>0.7033911405424291</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.685212717969678</v>
+        <v>0.8866751517386627</v>
       </c>
       <c r="F3" t="n">
-        <v>1.390152096748352</v>
+        <v>0.1167108193039894</v>
       </c>
       <c r="G3" t="n">
-        <v>4.296662330627441</v>
+        <v>0.08194077014923096</v>
       </c>
       <c r="H3" t="n">
-        <v>4.579468727111816</v>
+        <v>0.1758255660533905</v>
       </c>
       <c r="I3" t="n">
-        <v>4.429750919342041</v>
+        <v>0.1261218637228012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_22</t>
+          <t>model_7_7_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2483070091372339</v>
+        <v>0.8968493003884969</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.947264922341412</v>
+        <v>0.9397534814428138</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.089555044403393</v>
+        <v>0.7034390550106804</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.655107906671295</v>
+        <v>0.8851249161725033</v>
       </c>
       <c r="F4" t="n">
-        <v>1.381507992744446</v>
+        <v>0.114157423377037</v>
       </c>
       <c r="G4" t="n">
-        <v>4.477099418640137</v>
+        <v>0.08522487431764603</v>
       </c>
       <c r="H4" t="n">
-        <v>4.29958438873291</v>
+        <v>0.175797164440155</v>
       </c>
       <c r="I4" t="n">
-        <v>4.393563747406006</v>
+        <v>0.1278471499681473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_21</t>
+          <t>model_7_7_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2470643528436756</v>
+        <v>0.8993093297008945</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.985692811835584</v>
+        <v>0.938576291656831</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.986356848117425</v>
+        <v>0.7035429170334742</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.646687957816829</v>
+        <v>0.8843588224172239</v>
       </c>
       <c r="F5" t="n">
-        <v>1.380132794380188</v>
+        <v>0.1114348992705345</v>
       </c>
       <c r="G5" t="n">
-        <v>4.535474300384521</v>
+        <v>0.08689013123512268</v>
       </c>
       <c r="H5" t="n">
-        <v>4.212403774261475</v>
+        <v>0.1757355928421021</v>
       </c>
       <c r="I5" t="n">
-        <v>4.383442878723145</v>
+        <v>0.1286997497081757</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_20</t>
+          <t>model_7_7_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2379270761411512</v>
+        <v>0.9016092113084652</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.997559327686303</v>
+        <v>0.9372914306333401</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.862753362133738</v>
+        <v>0.703248910312342</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.613745764259477</v>
+        <v>0.8834205135775581</v>
       </c>
       <c r="F6" t="n">
-        <v>1.370020627975464</v>
+        <v>0.1088896170258522</v>
       </c>
       <c r="G6" t="n">
-        <v>4.553499698638916</v>
+        <v>0.08870768547058105</v>
       </c>
       <c r="H6" t="n">
-        <v>4.107985496520996</v>
+        <v>0.1759098768234253</v>
       </c>
       <c r="I6" t="n">
-        <v>4.343844890594482</v>
+        <v>0.1297440081834793</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_19</t>
+          <t>model_7_7_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1067033069258516</v>
+        <v>0.9038261011775033</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.524771341282624</v>
+        <v>0.936201902974387</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.614393310748876</v>
+        <v>0.7026831868179882</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.215291118308726</v>
+        <v>0.8825455533057907</v>
       </c>
       <c r="F7" t="n">
-        <v>1.224794507026672</v>
+        <v>0.1064361706376076</v>
       </c>
       <c r="G7" t="n">
-        <v>3.835302591323853</v>
+        <v>0.09024894237518311</v>
       </c>
       <c r="H7" t="n">
-        <v>3.898174285888672</v>
+        <v>0.1762452274560928</v>
       </c>
       <c r="I7" t="n">
-        <v>3.864889144897461</v>
+        <v>0.1307177841663361</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_18</t>
+          <t>model_7_7_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.08372109438000863</v>
+        <v>0.9058216671437656</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.569181757430727</v>
+        <v>0.9348258284816582</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.313204053066753</v>
+        <v>0.701429143210206</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.145392207584914</v>
+        <v>0.8813052346844303</v>
       </c>
       <c r="F8" t="n">
-        <v>1.199359893798828</v>
+        <v>0.1042276620864868</v>
       </c>
       <c r="G8" t="n">
-        <v>3.902765035629272</v>
+        <v>0.0921955406665802</v>
       </c>
       <c r="H8" t="n">
-        <v>3.643733739852905</v>
+        <v>0.1769886016845703</v>
       </c>
       <c r="I8" t="n">
-        <v>3.780868053436279</v>
+        <v>0.1320981532335281</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_17</t>
+          <t>model_7_7_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.05370465608401043</v>
+        <v>0.9077719669664925</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.544082256349661</v>
+        <v>0.9336590657903605</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.069139099934906</v>
+        <v>0.7001971352846965</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.047881767583971</v>
+        <v>0.8802112902655979</v>
       </c>
       <c r="F9" t="n">
-        <v>1.166140556335449</v>
+        <v>0.1020692586898804</v>
       </c>
       <c r="G9" t="n">
-        <v>3.864637136459351</v>
+        <v>0.09384604543447495</v>
       </c>
       <c r="H9" t="n">
-        <v>3.437551021575928</v>
+        <v>0.177718922495842</v>
       </c>
       <c r="I9" t="n">
-        <v>3.663657188415527</v>
+        <v>0.1333156228065491</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_16</t>
+          <t>model_7_7_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.03931065479408824</v>
+        <v>0.9096541170584966</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.529083825991656</v>
+        <v>0.9325723051436116</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.949599606563432</v>
+        <v>0.6989371819938462</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.998311218692836</v>
+        <v>0.8791641431602895</v>
       </c>
       <c r="F10" t="n">
-        <v>1.150210618972778</v>
+        <v>0.09998626261949539</v>
       </c>
       <c r="G10" t="n">
-        <v>3.841853141784668</v>
+        <v>0.09538337588310242</v>
       </c>
       <c r="H10" t="n">
-        <v>3.336565971374512</v>
+        <v>0.1784658133983612</v>
       </c>
       <c r="I10" t="n">
-        <v>3.604071855545044</v>
+        <v>0.1344810426235199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_15</t>
+          <t>model_7_7_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03925400552557035</v>
+        <v>0.9112659831305571</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.060949209887742</v>
+        <v>0.9309759331081484</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.779966390511053</v>
+        <v>0.6966770623601091</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.95973469040262</v>
+        <v>0.8775234023688564</v>
       </c>
       <c r="F11" t="n">
-        <v>1.150148034095764</v>
+        <v>0.0982024148106575</v>
       </c>
       <c r="G11" t="n">
-        <v>3.130724668502808</v>
+        <v>0.09764161705970764</v>
       </c>
       <c r="H11" t="n">
-        <v>4.038048267364502</v>
+        <v>0.1798055768013</v>
       </c>
       <c r="I11" t="n">
-        <v>3.557701826095581</v>
+        <v>0.1363070607185364</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_12</t>
+          <t>model_7_7_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03529098657602137</v>
+        <v>0.9127927409562443</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.130824193267856</v>
+        <v>0.9293629743311186</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.510276740071682</v>
+        <v>0.6944423373834736</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.917288663340655</v>
+        <v>0.8758779442148074</v>
       </c>
       <c r="F12" t="n">
-        <v>1.145762205123901</v>
+        <v>0.09651274234056473</v>
       </c>
       <c r="G12" t="n">
-        <v>3.236869335174561</v>
+        <v>0.09992331266403198</v>
       </c>
       <c r="H12" t="n">
-        <v>3.810218095779419</v>
+        <v>0.1811303049325943</v>
       </c>
       <c r="I12" t="n">
-        <v>3.506680011749268</v>
+        <v>0.1381383091211319</v>
       </c>
     </row>
     <row r="13">
@@ -823,59 +823,59 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02067007329383919</v>
+        <v>0.9142569736634609</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.064899754588288</v>
+        <v>0.9277867247975905</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.499421743935815</v>
+        <v>0.6924078024190639</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.8695929264005</v>
+        <v>0.87430726191187</v>
       </c>
       <c r="F13" t="n">
-        <v>1.129581093788147</v>
+        <v>0.09489226341247559</v>
       </c>
       <c r="G13" t="n">
-        <v>3.136725425720215</v>
+        <v>0.1021530777215958</v>
       </c>
       <c r="H13" t="n">
-        <v>3.801048040390015</v>
+        <v>0.1823363304138184</v>
       </c>
       <c r="I13" t="n">
-        <v>3.449348211288452</v>
+        <v>0.1398863792419434</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_10</t>
+          <t>model_7_7_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.005460942474114994</v>
+        <v>0.9157169111930541</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.047949606350001</v>
+        <v>0.9263873385672581</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.386490142044799</v>
+        <v>0.6907796259220935</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.820904014568201</v>
+        <v>0.8729574840064687</v>
       </c>
       <c r="F14" t="n">
-        <v>1.112748980522156</v>
+        <v>0.09327654540538788</v>
       </c>
       <c r="G14" t="n">
-        <v>3.110977172851562</v>
+        <v>0.1041326522827148</v>
       </c>
       <c r="H14" t="n">
-        <v>3.705644845962524</v>
+        <v>0.1833014935255051</v>
       </c>
       <c r="I14" t="n">
-        <v>3.390822410583496</v>
+        <v>0.1413885653018951</v>
       </c>
     </row>
     <row r="15">
@@ -885,28 +885,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03775297859132476</v>
+        <v>0.9171600219669291</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.882123125243728</v>
+        <v>0.9251270921954675</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.344004785799243</v>
+        <v>0.6895468178923195</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.695907712499017</v>
+        <v>0.8718004499955151</v>
       </c>
       <c r="F15" t="n">
-        <v>1.064923882484436</v>
+        <v>0.09167943894863129</v>
       </c>
       <c r="G15" t="n">
-        <v>2.859075307846069</v>
+        <v>0.1059153974056244</v>
       </c>
       <c r="H15" t="n">
-        <v>3.669754028320312</v>
+        <v>0.1840322911739349</v>
       </c>
       <c r="I15" t="n">
-        <v>3.240572452545166</v>
+        <v>0.1426762491464615</v>
       </c>
     </row>
     <row r="16">
@@ -916,338 +916,338 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03799135583489488</v>
+        <v>0.9182188621352736</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.8849412623417607</v>
+        <v>0.9230178168299983</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.358851852088549</v>
+        <v>0.6865666308039853</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.702702871481663</v>
+        <v>0.8696339358468327</v>
       </c>
       <c r="F16" t="n">
-        <v>1.06466007232666</v>
+        <v>0.0905076265335083</v>
       </c>
       <c r="G16" t="n">
-        <v>2.863356351852417</v>
+        <v>0.1088991910219193</v>
       </c>
       <c r="H16" t="n">
-        <v>3.682296514511108</v>
+        <v>0.1857988834381104</v>
       </c>
       <c r="I16" t="n">
-        <v>3.248740434646606</v>
+        <v>0.1450874209403992</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_8</t>
+          <t>model_7_7_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.275489123826879</v>
+        <v>0.9187809289822754</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3220895533984625</v>
+        <v>0.9198104402895204</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.053526711336234</v>
+        <v>0.6811468390842788</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.7941663105654821</v>
+        <v>0.8661172663213549</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8018199801445007</v>
+        <v>0.08988557755947113</v>
       </c>
       <c r="G17" t="n">
-        <v>1.029792904853821</v>
+        <v>0.1134363412857056</v>
       </c>
       <c r="H17" t="n">
-        <v>3.424362182617188</v>
+        <v>0.1890116631984711</v>
       </c>
       <c r="I17" t="n">
-        <v>2.156648635864258</v>
+        <v>0.1490012109279633</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_7</t>
+          <t>model_7_7_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3414492106870919</v>
+        <v>0.9198115212860057</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3083330644623417</v>
+        <v>0.9179098562296815</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.353379743752497</v>
+        <v>0.6788718788886903</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.5718118208346017</v>
+        <v>0.8642681468094878</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7288216352462769</v>
+        <v>0.08874501287937164</v>
       </c>
       <c r="G18" t="n">
-        <v>1.050690054893494</v>
+        <v>0.1161249056458473</v>
       </c>
       <c r="H18" t="n">
-        <v>2.832887887954712</v>
+        <v>0.1903602480888367</v>
       </c>
       <c r="I18" t="n">
-        <v>1.889371037483215</v>
+        <v>0.1510591357946396</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_6</t>
+          <t>model_7_7_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3646689077058256</v>
+        <v>0.9210418839836834</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2291415796064455</v>
+        <v>0.9166298922518741</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.96467039427217</v>
+        <v>0.6783813229428798</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.496236504122322</v>
+        <v>0.8632838021224601</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7031243443489075</v>
+        <v>0.08738337457180023</v>
       </c>
       <c r="G19" t="n">
-        <v>1.170987367630005</v>
+        <v>0.1179355680942535</v>
       </c>
       <c r="H19" t="n">
-        <v>2.504511594772339</v>
+        <v>0.1906510293483734</v>
       </c>
       <c r="I19" t="n">
-        <v>1.798527002334595</v>
+        <v>0.1521546244621277</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_9</t>
+          <t>model_7_7_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4862789860429287</v>
+        <v>0.9220892374510219</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4260801703944251</v>
+        <v>0.9150593334570721</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.66639747949002</v>
+        <v>0.677076565599117</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2658298949119053</v>
+        <v>0.8618999191793701</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5685377717018127</v>
+        <v>0.0862242579460144</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8718239665031433</v>
+        <v>0.120157279074192</v>
       </c>
       <c r="H20" t="n">
-        <v>2.252534866333008</v>
+        <v>0.1914244741201401</v>
       </c>
       <c r="I20" t="n">
-        <v>1.521570444107056</v>
+        <v>0.1536947786808014</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_5</t>
+          <t>model_7_7_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4990805786578089</v>
+        <v>0.92312064851371</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6643890768039935</v>
+        <v>0.9135850319897105</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.32687740199603</v>
+        <v>0.6761178210317957</v>
       </c>
       <c r="E21" t="n">
-        <v>0.005898214700998494</v>
+        <v>0.8606675049594198</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5543702244758606</v>
+        <v>0.08508278429508209</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5098162293434143</v>
+        <v>0.1222428232431412</v>
       </c>
       <c r="H21" t="n">
-        <v>1.965713143348694</v>
+        <v>0.1919928044080734</v>
       </c>
       <c r="I21" t="n">
-        <v>1.194943904876709</v>
+        <v>0.1550663709640503</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_4</t>
+          <t>model_7_7_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5258038828539862</v>
+        <v>0.9240800223847938</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4526735808576102</v>
+        <v>0.9120605606667429</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2749979561658713</v>
+        <v>0.6750102137189213</v>
       </c>
       <c r="E22" t="n">
-        <v>0.212137460133074</v>
+        <v>0.8593639855984079</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5247954130172729</v>
+        <v>0.08402103930711746</v>
       </c>
       <c r="G22" t="n">
-        <v>0.831426739692688</v>
+        <v>0.1243993565440178</v>
       </c>
       <c r="H22" t="n">
-        <v>1.077100276947021</v>
+        <v>0.1926493793725967</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9470375180244446</v>
+        <v>0.1565170884132385</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_3</t>
+          <t>model_7_7_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5491028307142922</v>
+        <v>0.9249817157607654</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4689328300280955</v>
+        <v>0.9105356623950742</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.02494060688081601</v>
+        <v>0.6739147903887769</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3057161864118256</v>
+        <v>0.8580632999010054</v>
       </c>
       <c r="F23" t="n">
-        <v>0.499010294675827</v>
+        <v>0.08302313089370728</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8067278265953064</v>
+        <v>0.126556470990181</v>
       </c>
       <c r="H23" t="n">
-        <v>0.86585533618927</v>
+        <v>0.1932987421751022</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8345526456832886</v>
+        <v>0.1579646319150925</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_2</t>
+          <t>model_7_7_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5894112188470619</v>
+        <v>0.9258695213638402</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5420297967646803</v>
+        <v>0.9091092392944486</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2687519202992565</v>
+        <v>0.673048136538406</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4517537584113187</v>
+        <v>0.8568862581694545</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4544008076190948</v>
+        <v>0.08204060047864914</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6956884860992432</v>
+        <v>0.1285742968320847</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6177480220794678</v>
+        <v>0.1938124746084213</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6590105295181274</v>
+        <v>0.1592746078968048</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_1</t>
+          <t>model_7_7_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5983427559622843</v>
+        <v>0.9266929273938589</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5772879177417105</v>
+        <v>0.9076465134111029</v>
       </c>
       <c r="D25" t="n">
-        <v>0.613889816640289</v>
+        <v>0.672056066264813</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5894895363527041</v>
+        <v>0.8556531732707424</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4445162117481232</v>
+        <v>0.08112932741641998</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6421289443969727</v>
+        <v>0.1306434720754623</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3261804282665253</v>
+        <v>0.1944005787372589</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4934475421905518</v>
+        <v>0.160646915435791</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_7_7_0</t>
+          <t>model_7_7_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6245598334581064</v>
+        <v>0.9274771699507821</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9572789422363849</v>
+        <v>0.90621915148419</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5028002775328418</v>
+        <v>0.6710730167230894</v>
       </c>
       <c r="E26" t="n">
-        <v>0.806980025528853</v>
+        <v>0.8544464060926414</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4155016541481018</v>
+        <v>0.08026140183210373</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06489624083042145</v>
+        <v>0.1326626241207123</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4200272858142853</v>
+        <v>0.1949833035469055</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2320165485143661</v>
+        <v>0.1619899868965149</v>
       </c>
     </row>
   </sheetData>
